--- a/lazada-sg-products.xlsx
+++ b/lazada-sg-products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,113 +467,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dummy name1</t>
+          <t>dummy name24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>lego 42121</t>
+          <t>lego 71368</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lego 42121 Technic Heavy-Duty Excavator</t>
+          <t>[SG] Lego Super Mario Whomp's Lava Trouble 71364 Boomer Bill Barrage 71366 Toad's Treasure Hunt 71368 Expansion Sets</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$57.50</t>
+          <t>$28.90</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dummy name2</t>
+          <t>dummy name25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>lego 76191</t>
+          <t>lego 76165</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[Genuine] LEGO Marvel Avengers 76191 Infinity Gauntlet Toys for Kids</t>
+          <t>Optics Sensor LED Light Lighting Kit ONLY For LEGO 76165 IRON MAN Bricks Toy for Teenage</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$101.92</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>dummy name3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>lego 71372</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LEGO Super Mario 71372 Cat Mario Power-Up Pack</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$14.90</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dummy name4</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>lego 10941</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Lego Duplo Disney Mickey &amp; Minnie Birthday Train 10941</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$34.90</t>
+          <t>$18.90</t>
         </is>
       </c>
     </row>

--- a/lazada-sg-products.xlsx
+++ b/lazada-sg-products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,16 +467,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dummy name24</t>
+          <t>dummy name1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>lego 71368</t>
+          <t>lego 42121</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -484,40 +484,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[SG] Lego Super Mario Whomp's Lava Trouble 71364 Boomer Bill Barrage 71366 Toad's Treasure Hunt 71368 Expansion Sets</t>
+          <t>[Genuine] LEGO Duplo 10951 Horse Stable and Pony Care Toys for Kids</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$28.90</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>25</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>dummy name25</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>lego 76165</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>26</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Optics Sensor LED Light Lighting Kit ONLY For LEGO 76165 IRON MAN Bricks Toy for Teenage</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$18.90</t>
+          <t>$38.17</t>
         </is>
       </c>
     </row>
